--- a/レビュー反応.xlsx
+++ b/レビュー反応.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takeshitakanta/Graduation_assignment/Review_site/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32200877-CE5E-334F-B333-F9174E60AA52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{42A01901-6882-5440-8179-C3CAF6A3FA8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="27700" windowHeight="16220" xr2:uid="{07220BAE-9D3E-5A43-8890-5CEB2116580F}"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="13220" windowHeight="16220" xr2:uid="{07220BAE-9D3E-5A43-8890-5CEB2116580F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -654,10 +655,7 @@
 期待する効果の下の方で
 詳しく書いています</t>
     <rPh sb="0" eb="1">
-      <t>オオキn</t>
-    </rPh>
-    <rPh sb="527" eb="528">
-      <t>シt</t>
+      <t>オオキnシt</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -671,10 +669,7 @@
 簡単に付けれるアプリがない
 ・複数の本をまとめて紹介できるアプリがない</t>
     <rPh sb="0" eb="1">
-      <t>ホn</t>
-    </rPh>
-    <rPh sb="453" eb="454">
-      <t>オウj</t>
+      <t>ホnオウj</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -691,15 +686,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・openBDから登録時のみ本の情報は取得、FireStoreに保存
-その後はFireStoreから引っ張り出す
-・いいね数による月間ランキングとスタンプ数による月間ランキング</t>
-    <rPh sb="0" eb="1">
-      <t>・</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・openBDを用いて繋げる
 ・Twitterにはマイページで連携し、レビュー作成時やリスト作成時に、共有するかの通知をする。
 作成後のレビューやリストも任意で共有できる。
@@ -734,7 +720,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="游ゴシック (本文)"/>
-        <charset val="128"/>
       </rPr>
       <t xml:space="preserve">A.AWAという音楽アプリのプレイリストを参考にしています。
 </t>
@@ -744,7 +729,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="游ゴシック (本文)"/>
-        <charset val="128"/>
       </rPr>
       <t xml:space="preserve">・Q.テンプレートを作るか？
 </t>
@@ -755,7 +739,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="游ゴシック (本文)"/>
-        <charset val="128"/>
       </rPr>
       <t>A.月間おすすめ本というリードリストをデフォルトでユーザー全員が持つようにする</t>
     </r>
@@ -764,7 +747,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="游ゴシック (本文)"/>
-        <charset val="128"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -793,27 +775,47 @@
       </rPr>
       <t>A.しない</t>
     </r>
-    <rPh sb="0" eb="4224">
+    <rPh sb="0" eb="126">
       <t>オンガk</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">・Q.Firebaseを選定した理由は？
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック (本文)"/>
+    <t>はい！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ありがとうございます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・分担が不明です。レビュー時に説明してください。</t>
+    <rPh sb="1" eb="3">
+      <t>ブンタン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>フメイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">A.ML Kitを使用する為
-新しい技術に挑戦する為
-</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>設計書</t>
     </r>
     <r>
       <rPr>
@@ -825,19 +827,22 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-・Q.monacaの使用用途は？
+・機能設計書２名（津上千尋、尾下瑞季）
+・画面設計書２名（城田大輔、曲里祥太朗）
+・DB設計書＆DB環境構築１名（竹下寛大）
 </t>
     </r>
     <r>
       <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック (本文)"/>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">A.Monacaの使用をやめてAndroid studioを使います。
-使用用途はAndroidアプリとして実装する為です。
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">開発
 </t>
     </r>
     <r>
@@ -849,6 +854,104 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
+      <t>・FireStore＆Fire base</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>関係１名（津上千尋）
+・フロントエンド＆デザイン２名（曲里祥太朗、城田大輔）
+・バックエンド２名（竹下寛大、尾下瑞季）</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>キノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・openBDから登録時のみ本の情報は取得、FireStoreに保存
+その後はFireStoreから引っ張り出す
+・リードリストのいいね数による月間ランキングtop10とスタンプ数による月間ランキングtop10</t>
+    <rPh sb="0" eb="1">
+      <t>・</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・Q.Firebaseを選定した理由は？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック (本文)"/>
+      </rPr>
+      <t>A.ML Kit</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">を使用する為
+新しい技術に挑戦する為
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+・Q.monacaの使用用途は？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック (本文)"/>
+      </rPr>
+      <t>A.Monaca</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">の使用をやめてAndroid studioを使います。
+使用用途はAndroidアプリとして実装する為です。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
 ・Q.ML Kitの使用用途は？
 </t>
@@ -859,9 +962,18 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="游ゴシック (本文)"/>
-        <charset val="128"/>
-      </rPr>
-      <t>A.バーコードの画像からISBNコードを抽出する為</t>
+      </rPr>
+      <t>A.</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>バーコードの画像からISBNコードを抽出する為</t>
     </r>
     <rPh sb="0" eb="1">
       <t>アタラs</t>
@@ -869,14 +981,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>はい！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ありがとうございます</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">・Q.設計と開発のバランスは？
 </t>
@@ -887,9 +991,18 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="游ゴシック (本文)"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">A.設計２５％
+      </rPr>
+      <t>A.</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">設計２５％
 技術学習２５％
 開発５０％
 くらいで考えています。
@@ -915,98 +1028,21 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="游ゴシック (本文)"/>
-        <charset val="128"/>
-      </rPr>
-      <t>A.はい、含まれています。</t>
+      </rPr>
+      <t>A.</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>はい、含まれています。</t>
     </r>
     <rPh sb="0" eb="2">
       <t>セッケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・分担が不明です。レビュー時に説明してください。</t>
-    <rPh sb="1" eb="3">
-      <t>ブンタン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>フメイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>設計書</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-・機能設計書２名（津上千尋、尾下瑞季）
-・画面設計書２名（城田大輔、曲里祥太朗）
-・DB設計書＆DB環境構築１名（竹下寛大）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">開発
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・FireStore＆Fire base</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>関係１名（津上千尋）
-・フロントエンド＆デザイン２名（曲里祥太朗、城田大輔）
-・バックエンド２名（竹下寛大、尾下瑞季）</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>キノ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1015,7 +1051,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1044,13 +1080,11 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック (本文)"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック (本文)"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -1068,6 +1102,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1180,29 +1221,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1221,6 +1241,27 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1538,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36583984-A08B-F14D-84AB-50D710F7C173}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="M2" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1561,175 +1602,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="14"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="7" t="s">
+      <c r="M1" s="11"/>
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="6"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:16" ht="64" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="168" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="342" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="280" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="12" t="s">
+      <c r="L4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="M4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
